--- a/out/illiquid_2025-06-26_15-32.xlsx
+++ b/out/illiquid_2025-06-26_15-32.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="503">
   <si>
     <t>статус</t>
   </si>
@@ -613,7 +613,7 @@
     <t>sales</t>
   </si>
   <si>
-    <t>П0000048557, П0000020239, П0000025653, П0000031596</t>
+    <t>П0000048557, П0000025653, П0000031596, П0000020239</t>
   </si>
   <si>
     <t>7520</t>
@@ -625,7 +625,7 @@
     <t>нет</t>
   </si>
   <si>
-    <t>П0000044086, 00-00008976, П0000050623, П0000020200, П0000026349, П0000024523, П0000026352</t>
+    <t>П0000026352, П0000044086, П0000026349, П0000050623, П0000020200, П0000024523, 00-00008976</t>
   </si>
   <si>
     <t>7516</t>
@@ -637,7 +637,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>П0000044085, 00-00008975, П0000020199, П0000044067, П0000026351, П0000031116, П0000020197, П0000027386</t>
+    <t>П0000026351, П0000044067, П0000020197, П0000027386, П0000044085, П0000031116, 00-00008975, П0000020199</t>
   </si>
   <si>
     <t>7509</t>
@@ -649,7 +649,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>П0000065897, П0000027384, П0000037474, П0000044065, П0000026101, П0000020192</t>
+    <t>П0000065897, П0000044065, П0000037474, П0000027384, П0000026101, П0000020192</t>
   </si>
   <si>
     <t>50411</t>
@@ -661,7 +661,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>00-00025111, П0000024402, П0000026319, П0000049808, П0000043655, П0000022136, П0000044007</t>
+    <t>П0000044007, П0000049808, 00-00025111, П0000022136, П0000043655, П0000024402, П0000026319</t>
   </si>
   <si>
     <t>3612</t>
@@ -673,7 +673,7 @@
     <t>Norm</t>
   </si>
   <si>
-    <t>П0000044971, П0000026504, П0000043432, П0000034637, П0000027880, П0000021988, П0000031136, П0000043860</t>
+    <t>П0000021988, П0000026504, П0000043432, П0000044971, П0000034637, П0000031136, П0000027880, П0000043860</t>
   </si>
   <si>
     <t>2007118</t>
@@ -685,6 +685,9 @@
     <t>['БЕЗ МАРК' '0' 'РВЗ']</t>
   </si>
   <si>
+    <t>П0000027006, П0000048576, П0000032782</t>
+  </si>
+  <si>
     <t>180307</t>
   </si>
   <si>
@@ -694,7 +697,7 @@
     <t>['0' 'БЕЗ МАРК' 'РВЗ' 'SKF']</t>
   </si>
   <si>
-    <t>П0000025747, П0000047021, П0000056139, П0000020088, П0000038026</t>
+    <t>П0000020088, П0000038026, П0000025747, П0000056139, П0000047021</t>
   </si>
   <si>
     <t>180306</t>
@@ -703,7 +706,13 @@
     <t>П0000020092, П0000021572, П0000025749, П0000026299, П0000036820, П0000043867, П0000048897</t>
   </si>
   <si>
-    <t>П0000048897, П0000025749, П0000020092, П0000043867, П0000021572, П0000036820</t>
+    <t>N--</t>
+  </si>
+  <si>
+    <t>меньше_10</t>
+  </si>
+  <si>
+    <t>П0000043867, П0000021572, П0000025749, П0000048897, П0000036820</t>
   </si>
   <si>
     <t>180205</t>
@@ -712,7 +721,7 @@
     <t>00-00004998, П0000020067, П0000020075, П0000021177, П0000025741, П0000027393, П0000031055, П0000034691, П0000044024, П0000047852, П0000064845</t>
   </si>
   <si>
-    <t>П0000064845, П0000031055, П0000044024, 00-00004998, П0000047852, П0000025741, П0000021177, П0000034691, П0000020075, П0000027393</t>
+    <t>П0000044024, П0000047852, П0000025741, П0000064845, П0000021177, 00-00004998, П0000031055, П0000034691, П0000020075, П0000027393</t>
   </si>
   <si>
     <t>180204</t>
@@ -724,7 +733,7 @@
     <t>['0' 'РВЗ' 'БЕЗ МАРК']</t>
   </si>
   <si>
-    <t>П0000037490, П0000042905, П0000025745, 00-00008488, 00-00003368, П0000020085, П0000020074, П0000026292, П0000044437, П0000044023</t>
+    <t>00-00003368, П0000042905, П0000020085, П0000025745, 00-00008488, П0000037490, П0000044023, П0000044437, П0000020074, П0000026292</t>
   </si>
   <si>
     <t>Дата первой отгрузки в периоде: 2021-10-01 00:00:00</t>
@@ -772,7 +781,7 @@
     <t>Время начала выполнения проекта:</t>
   </si>
   <si>
-    <t>2025-06-26 15:32:11.302934+03:00</t>
+    <t>2025-07-07 11:46:30.830621+03:00</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -835,28 +844,31 @@
     <t>df_sales[order_number]</t>
   </si>
   <si>
-    <t>3891</t>
+    <t>3691</t>
   </si>
   <si>
     <t>df_sales[bill_number]</t>
   </si>
   <si>
-    <t>7187</t>
+    <t>6838</t>
   </si>
   <si>
     <t>df_sales[order_uniq]</t>
   </si>
   <si>
-    <t>4013</t>
+    <t>3803</t>
   </si>
   <si>
     <t>df_sales[bill_uniq]</t>
   </si>
   <si>
-    <t>7440</t>
+    <t>7061</t>
   </si>
   <si>
     <t>df_sales.shape</t>
+  </si>
+  <si>
+    <t>(11138, 42)</t>
   </si>
   <si>
     <t>ПРОДАЖИ:    начало и конец периода</t>
@@ -895,13 +907,13 @@
     <t>len(df_sales[client_inn].unique()</t>
   </si>
   <si>
-    <t>1327</t>
+    <t>1298</t>
   </si>
   <si>
     <t>len(df_sales[head_inn_uniq].unique()</t>
   </si>
   <si>
-    <t>1297</t>
+    <t>1269</t>
   </si>
   <si>
     <t>Обработка_остатков: df_stock</t>
@@ -985,7 +997,7 @@
     <t>Первая дата      -- bill_first_date:</t>
   </si>
   <si>
-    <t>2021-09-17 00:00:00</t>
+    <t>2021-09-21 00:00:00</t>
   </si>
   <si>
     <t>Последняя дата   -- bill_last_date:</t>
@@ -997,7 +1009,7 @@
     <t>Первая неделя    -- bill_first_week:</t>
   </si>
   <si>
-    <t>37-2021</t>
+    <t>38-2021</t>
   </si>
   <si>
     <t>Последняя неделя -- bill_last_week:</t>
@@ -1006,7 +1018,7 @@
     <t>Интервал         -- df_sales[bill_date]:</t>
   </si>
   <si>
-    <t>1239 days 00:00:00</t>
+    <t>1235 days 00:00:00</t>
   </si>
   <si>
     <t>Формируем продажи в шт по TIP</t>
@@ -1018,7 +1030,7 @@
     <t>df_order[code_1c].unique()</t>
   </si>
   <si>
-    <t>74</t>
+    <t>73</t>
   </si>
   <si>
     <t>df_order[tip_product].unique()</t>
@@ -1051,7 +1063,7 @@
     <t>Сумма продаж в периоде:</t>
   </si>
   <si>
-    <t>307491692.28999937</t>
+    <t>293252404.91999966</t>
   </si>
   <si>
     <t>df_abc_tip_sum = df_order.groupby([tip_product)</t>
@@ -1081,7 +1093,7 @@
     <t>Проверка рассчитанного процента АВС</t>
   </si>
   <si>
-    <t>100.00000000000023</t>
+    <t>100.00000000000014</t>
   </si>
   <si>
     <t>Проверка сортировки df_abc_tip_sum (верх и низ) и кумулятивного процента</t>
@@ -1102,13 +1114,13 @@
     <t>Проверка процента АБС_маржинальность</t>
   </si>
   <si>
-    <t>99.99999999999999</t>
+    <t>100.0</t>
   </si>
   <si>
     <t>Сумма маржи в периоде</t>
   </si>
   <si>
-    <t>6423881.880000001</t>
+    <t>6389053.08</t>
   </si>
   <si>
     <t>df_abc_tip_marg[tip_product].unique() -- до:</t>
@@ -1301,9 +1313,6 @@
   </si>
   <si>
     <t>code_1c_no_order -- нет продаж но есть остатки:</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>code_1c_no_stock -- нет остатков но есть продажи:</t>
@@ -24146,157 +24155,157 @@
                   <c:v>5523</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4170</c:v>
+                  <c:v>5510</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4166</c:v>
+                  <c:v>5506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3930</c:v>
+                  <c:v>5270</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3109</c:v>
+                  <c:v>4991</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2825</c:v>
+                  <c:v>4897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2087</c:v>
+                  <c:v>4159</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2072</c:v>
+                  <c:v>4144</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>520</c:v>
+                  <c:v>3810</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>318</c:v>
+                  <c:v>3810</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>318</c:v>
+                  <c:v>3810</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>288</c:v>
+                  <c:v>3780</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>288</c:v>
+                  <c:v>3780</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>288</c:v>
+                  <c:v>3780</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>208</c:v>
+                  <c:v>3780</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>208</c:v>
+                  <c:v>3780</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>208</c:v>
+                  <c:v>3780</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>208</c:v>
+                  <c:v>3780</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>208</c:v>
+                  <c:v>3780</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>208</c:v>
+                  <c:v>3780</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10208</c:v>
+                  <c:v>10780</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10208</c:v>
+                  <c:v>10780</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8160</c:v>
+                  <c:v>9232</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8160</c:v>
+                  <c:v>9232</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7745</c:v>
+                  <c:v>8917</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6935</c:v>
+                  <c:v>8467</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6722</c:v>
+                  <c:v>8327</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6502</c:v>
+                  <c:v>8107</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6022</c:v>
+                  <c:v>8087</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5922</c:v>
+                  <c:v>8287</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4022</c:v>
+                  <c:v>6387</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>505</c:v>
+                  <c:v>4276</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>315</c:v>
+                  <c:v>4086</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>315</c:v>
+                  <c:v>4086</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>314</c:v>
+                  <c:v>4085</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1678</c:v>
+                  <c:v>5449</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1619</c:v>
+                  <c:v>5390</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1569</c:v>
+                  <c:v>5340</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1475</c:v>
+                  <c:v>5246</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1403</c:v>
+                  <c:v>5174</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1358</c:v>
+                  <c:v>5129</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1246</c:v>
+                  <c:v>5017</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1244</c:v>
+                  <c:v>5009</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1117</c:v>
+                  <c:v>4888</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1111</c:v>
+                  <c:v>4882</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1100</c:v>
+                  <c:v>4871</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>800</c:v>
+                  <c:v>4571</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>250</c:v>
+                  <c:v>4021</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1735</c:v>
+                  <c:v>5506</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1196</c:v>
+                  <c:v>4967</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1166</c:v>
+                  <c:v>4937</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1099</c:v>
+                  <c:v>4870</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>21005</c:v>
@@ -24455,97 +24464,97 @@
                   <c:v>32847</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>24032</c:v>
+                  <c:v>27357</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>23892</c:v>
+                  <c:v>27237</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>23852</c:v>
+                  <c:v>27197</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>22237</c:v>
+                  <c:v>25834</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>22076</c:v>
+                  <c:v>25761</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>21864</c:v>
+                  <c:v>25549</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>20770</c:v>
+                  <c:v>24469</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>8957</c:v>
+                  <c:v>12676</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>8556</c:v>
+                  <c:v>12275</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8294</c:v>
+                  <c:v>12117</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>5225</c:v>
+                  <c:v>9048</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>4363</c:v>
+                  <c:v>8186</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2847</c:v>
+                  <c:v>6670</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2631</c:v>
+                  <c:v>6480</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2628</c:v>
+                  <c:v>6477</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2452</c:v>
+                  <c:v>6301</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1762</c:v>
+                  <c:v>5611</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1762</c:v>
+                  <c:v>5611</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>30</c:v>
+                  <c:v>3883</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>10</c:v>
+                  <c:v>3863</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>10</c:v>
+                  <c:v>3863</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>269</c:v>
+                  <c:v>4122</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>253</c:v>
+                  <c:v>4106</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>81</c:v>
+                  <c:v>3934</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>32</c:v>
+                  <c:v>3885</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>32</c:v>
+                  <c:v>3885</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>17</c:v>
+                  <c:v>3870</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>17</c:v>
+                  <c:v>3870</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>17</c:v>
+                  <c:v>3870</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>27</c:v>
+                  <c:v>3880</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>17</c:v>
+                  <c:v>3870</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>10002</c:v>
@@ -25152,97 +25161,97 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>223</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>590</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2380</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>282</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>508</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1795</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2482</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>682</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>317</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1408</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1528</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>257</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>780</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>646</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>450</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1453</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>721</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>284</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>753</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1542</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>202</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -25251,7 +25260,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>80</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -25272,37 +25281,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>600</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1448</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>290</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>573</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>580</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>220</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>400</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1524</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3695</c:v>
+                  <c:v>3505</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -25311,295 +25320,295 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>145</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>112</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>148</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>137</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>310</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>121</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>588</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1045</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>407</c:v>
-                </c:pt>
                 <c:pt idx="83">
-                  <c:v>72</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>213</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>272</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>198</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>218</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1229</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>158</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>94</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="94">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="97">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1246</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1227</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>8815</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1392</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>762</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>11813</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>3069</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1012</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1366</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>602</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1732</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>172</c:v>
-                </c:pt>
                 <c:pt idx="148">
-                  <c:v>49</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="151">
                   <c:v>0</c:v>
@@ -25608,28 +25617,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>160</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="156">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="161">
                   <c:v>0</c:v>
@@ -25641,28 +25650,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="165">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>156</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>177</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>0</c:v>
@@ -34238,7 +34247,7 @@
         <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E15">
         <v>10715193.17</v>
@@ -34798,10 +34807,10 @@
         <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E16">
         <v>24772400.21</v>
@@ -34834,7 +34843,7 @@
         <v>199</v>
       </c>
       <c r="O16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P16">
         <v>19</v>
@@ -35361,10 +35370,10 @@
         <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E17">
         <v>24772400.21</v>
@@ -35397,7 +35406,7 @@
         <v>199</v>
       </c>
       <c r="O17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -35924,37 +35933,37 @@
         <v>187</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E18">
-        <v>15073365.33</v>
+        <v>834077.9600000002</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G18" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H18">
         <v>10357</v>
       </c>
       <c r="I18">
-        <v>585</v>
+        <v>34</v>
       </c>
       <c r="J18">
-        <v>3372239.2</v>
+        <v>4194585</v>
       </c>
       <c r="K18">
-        <v>5675636</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>414</v>
       </c>
       <c r="M18" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="N18" t="s">
         <v>199</v>
@@ -36026,157 +36035,157 @@
         <v>5523</v>
       </c>
       <c r="AK18">
-        <v>4170</v>
+        <v>5510</v>
       </c>
       <c r="AL18">
-        <v>4166</v>
+        <v>5506</v>
       </c>
       <c r="AM18">
-        <v>3930</v>
+        <v>5270</v>
       </c>
       <c r="AN18">
-        <v>3109</v>
+        <v>4991</v>
       </c>
       <c r="AO18">
-        <v>2825</v>
+        <v>4897</v>
       </c>
       <c r="AP18">
-        <v>2087</v>
+        <v>4159</v>
       </c>
       <c r="AQ18">
-        <v>2072</v>
+        <v>4144</v>
       </c>
       <c r="AR18">
-        <v>520</v>
+        <v>3810</v>
       </c>
       <c r="AS18">
-        <v>318</v>
+        <v>3810</v>
       </c>
       <c r="AT18">
-        <v>318</v>
+        <v>3810</v>
       </c>
       <c r="AU18">
-        <v>288</v>
+        <v>3780</v>
       </c>
       <c r="AV18">
-        <v>288</v>
+        <v>3780</v>
       </c>
       <c r="AW18">
-        <v>288</v>
+        <v>3780</v>
       </c>
       <c r="AX18">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="AY18">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="AZ18">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="BA18">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="BB18">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="BC18">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="BD18">
-        <v>10208</v>
+        <v>10780</v>
       </c>
       <c r="BE18">
-        <v>10208</v>
+        <v>10780</v>
       </c>
       <c r="BF18">
-        <v>8160</v>
+        <v>9232</v>
       </c>
       <c r="BG18">
-        <v>8160</v>
+        <v>9232</v>
       </c>
       <c r="BH18">
-        <v>7745</v>
+        <v>8917</v>
       </c>
       <c r="BI18">
-        <v>6935</v>
+        <v>8467</v>
       </c>
       <c r="BJ18">
-        <v>6722</v>
+        <v>8327</v>
       </c>
       <c r="BK18">
-        <v>6502</v>
+        <v>8107</v>
       </c>
       <c r="BL18">
-        <v>6022</v>
+        <v>8087</v>
       </c>
       <c r="BM18">
-        <v>5922</v>
+        <v>8287</v>
       </c>
       <c r="BN18">
-        <v>4022</v>
+        <v>6387</v>
       </c>
       <c r="BO18">
-        <v>505</v>
+        <v>4276</v>
       </c>
       <c r="BP18">
-        <v>315</v>
+        <v>4086</v>
       </c>
       <c r="BQ18">
-        <v>315</v>
+        <v>4086</v>
       </c>
       <c r="BR18">
-        <v>314</v>
+        <v>4085</v>
       </c>
       <c r="BS18">
-        <v>1678</v>
+        <v>5449</v>
       </c>
       <c r="BT18">
-        <v>1619</v>
+        <v>5390</v>
       </c>
       <c r="BU18">
-        <v>1569</v>
+        <v>5340</v>
       </c>
       <c r="BV18">
-        <v>1475</v>
+        <v>5246</v>
       </c>
       <c r="BW18">
-        <v>1403</v>
+        <v>5174</v>
       </c>
       <c r="BX18">
-        <v>1358</v>
+        <v>5129</v>
       </c>
       <c r="BY18">
-        <v>1246</v>
+        <v>5017</v>
       </c>
       <c r="BZ18">
-        <v>1244</v>
+        <v>5009</v>
       </c>
       <c r="CA18">
-        <v>1117</v>
+        <v>4888</v>
       </c>
       <c r="CB18">
-        <v>1111</v>
+        <v>4882</v>
       </c>
       <c r="CC18">
-        <v>1100</v>
+        <v>4871</v>
       </c>
       <c r="CD18">
-        <v>800</v>
+        <v>4571</v>
       </c>
       <c r="CE18">
-        <v>250</v>
+        <v>4021</v>
       </c>
       <c r="CF18">
-        <v>1735</v>
+        <v>5506</v>
       </c>
       <c r="CG18">
-        <v>1196</v>
+        <v>4967</v>
       </c>
       <c r="CH18">
-        <v>1166</v>
+        <v>4937</v>
       </c>
       <c r="CI18">
-        <v>1099</v>
+        <v>4870</v>
       </c>
       <c r="CJ18">
         <v>21005</v>
@@ -36335,97 +36344,97 @@
         <v>32847</v>
       </c>
       <c r="EJ18">
-        <v>24032</v>
+        <v>27357</v>
       </c>
       <c r="EK18">
-        <v>23892</v>
+        <v>27237</v>
       </c>
       <c r="EL18">
-        <v>23852</v>
+        <v>27197</v>
       </c>
       <c r="EM18">
-        <v>22237</v>
+        <v>25834</v>
       </c>
       <c r="EN18">
-        <v>22076</v>
+        <v>25761</v>
       </c>
       <c r="EO18">
-        <v>21864</v>
+        <v>25549</v>
       </c>
       <c r="EP18">
-        <v>20770</v>
+        <v>24469</v>
       </c>
       <c r="EQ18">
-        <v>8957</v>
+        <v>12676</v>
       </c>
       <c r="ER18">
-        <v>8556</v>
+        <v>12275</v>
       </c>
       <c r="ES18">
-        <v>8294</v>
+        <v>12117</v>
       </c>
       <c r="ET18">
-        <v>5225</v>
+        <v>9048</v>
       </c>
       <c r="EU18">
-        <v>4363</v>
+        <v>8186</v>
       </c>
       <c r="EV18">
-        <v>2847</v>
+        <v>6670</v>
       </c>
       <c r="EW18">
-        <v>2631</v>
+        <v>6480</v>
       </c>
       <c r="EX18">
-        <v>2628</v>
+        <v>6477</v>
       </c>
       <c r="EY18">
-        <v>2452</v>
+        <v>6301</v>
       </c>
       <c r="EZ18">
-        <v>1762</v>
+        <v>5611</v>
       </c>
       <c r="FA18">
-        <v>1762</v>
+        <v>5611</v>
       </c>
       <c r="FB18">
-        <v>30</v>
+        <v>3883</v>
       </c>
       <c r="FC18">
-        <v>10</v>
+        <v>3863</v>
       </c>
       <c r="FD18">
-        <v>10</v>
+        <v>3863</v>
       </c>
       <c r="FE18">
-        <v>269</v>
+        <v>4122</v>
       </c>
       <c r="FF18">
-        <v>253</v>
+        <v>4106</v>
       </c>
       <c r="FG18">
-        <v>81</v>
+        <v>3934</v>
       </c>
       <c r="FH18">
-        <v>32</v>
+        <v>3885</v>
       </c>
       <c r="FI18">
-        <v>32</v>
+        <v>3885</v>
       </c>
       <c r="FJ18">
-        <v>17</v>
+        <v>3870</v>
       </c>
       <c r="FK18">
-        <v>17</v>
+        <v>3870</v>
       </c>
       <c r="FL18">
-        <v>17</v>
+        <v>3870</v>
       </c>
       <c r="FM18">
-        <v>27</v>
+        <v>3880</v>
       </c>
       <c r="FN18">
-        <v>17</v>
+        <v>3870</v>
       </c>
       <c r="FO18">
         <v>10002</v>
@@ -36487,37 +36496,37 @@
         <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E19">
-        <v>15073365.33</v>
+        <v>834077.9600000002</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H19">
         <v>10357</v>
       </c>
       <c r="I19">
-        <v>585</v>
+        <v>34</v>
       </c>
       <c r="J19">
-        <v>3372239.2</v>
+        <v>4194585</v>
       </c>
       <c r="K19">
-        <v>5675636</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>414</v>
       </c>
       <c r="M19" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s">
         <v>199</v>
@@ -36529,97 +36538,97 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>2380</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>1795</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>2482</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>1408</v>
+        <v>10</v>
       </c>
       <c r="AE19">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AK19">
-        <v>1453</v>
+        <v>0</v>
       </c>
       <c r="AL19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="AN19">
-        <v>721</v>
+        <v>30</v>
       </c>
       <c r="AO19">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>753</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="AR19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="AT19">
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AV19">
         <v>0</v>
@@ -36628,7 +36637,7 @@
         <v>0</v>
       </c>
       <c r="AX19">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AY19">
         <v>0</v>
@@ -36649,37 +36658,37 @@
         <v>1</v>
       </c>
       <c r="BE19">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="BF19">
-        <v>1448</v>
+        <v>40</v>
       </c>
       <c r="BG19">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="BH19">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="BI19">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="BJ19">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="BK19">
-        <v>580</v>
+        <v>20</v>
       </c>
       <c r="BL19">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="BM19">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="BN19">
-        <v>1524</v>
+        <v>0</v>
       </c>
       <c r="BO19">
-        <v>3695</v>
+        <v>3505</v>
       </c>
       <c r="BP19">
         <v>0</v>
@@ -36688,295 +36697,295 @@
         <v>0</v>
       </c>
       <c r="BR19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BS19">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="BT19">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BU19">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="BV19">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="BW19">
         <v>6</v>
       </c>
       <c r="BX19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BY19">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="BZ19">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="CA19">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="CB19">
         <v>0</v>
       </c>
       <c r="CC19">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>6</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19">
+        <v>15</v>
+      </c>
+      <c r="CM19">
+        <v>115</v>
+      </c>
+      <c r="CN19">
+        <v>0</v>
+      </c>
+      <c r="CO19">
+        <v>0</v>
+      </c>
+      <c r="CP19">
+        <v>0</v>
+      </c>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19">
         <v>10</v>
       </c>
-      <c r="CE19">
-        <v>0</v>
-      </c>
-      <c r="CF19">
-        <v>0</v>
-      </c>
-      <c r="CG19">
-        <v>0</v>
-      </c>
-      <c r="CH19">
-        <v>569</v>
-      </c>
-      <c r="CI19">
-        <v>73</v>
-      </c>
-      <c r="CJ19">
-        <v>2</v>
-      </c>
-      <c r="CK19">
-        <v>192</v>
-      </c>
-      <c r="CL19">
-        <v>77</v>
-      </c>
-      <c r="CM19">
-        <v>174</v>
-      </c>
-      <c r="CN19">
-        <v>154</v>
-      </c>
-      <c r="CO19">
-        <v>532</v>
-      </c>
-      <c r="CP19">
-        <v>500</v>
-      </c>
-      <c r="CQ19">
-        <v>273</v>
-      </c>
-      <c r="CR19">
-        <v>1045</v>
-      </c>
-      <c r="CS19">
-        <v>250</v>
-      </c>
-      <c r="CT19">
-        <v>407</v>
-      </c>
       <c r="CU19">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="CV19">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="CW19">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="CX19">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="CY19">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="CZ19">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="DA19">
-        <v>1229</v>
+        <v>0</v>
       </c>
       <c r="DB19">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="DC19">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="DD19">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="DE19">
+        <v>0</v>
+      </c>
+      <c r="DF19">
+        <v>0</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DH19">
+        <v>0</v>
+      </c>
+      <c r="DI19">
+        <v>0</v>
+      </c>
+      <c r="DJ19">
+        <v>0</v>
+      </c>
+      <c r="DK19">
+        <v>0</v>
+      </c>
+      <c r="DL19">
+        <v>0</v>
+      </c>
+      <c r="DM19">
+        <v>0</v>
+      </c>
+      <c r="DN19">
+        <v>0</v>
+      </c>
+      <c r="DO19">
+        <v>0</v>
+      </c>
+      <c r="DP19">
+        <v>0</v>
+      </c>
+      <c r="DQ19">
+        <v>0</v>
+      </c>
+      <c r="DR19">
+        <v>0</v>
+      </c>
+      <c r="DS19">
+        <v>0</v>
+      </c>
+      <c r="DT19">
+        <v>0</v>
+      </c>
+      <c r="DU19">
+        <v>0</v>
+      </c>
+      <c r="DV19">
+        <v>0</v>
+      </c>
+      <c r="DW19">
+        <v>0</v>
+      </c>
+      <c r="DX19">
+        <v>0</v>
+      </c>
+      <c r="DY19">
+        <v>0</v>
+      </c>
+      <c r="DZ19">
+        <v>0</v>
+      </c>
+      <c r="EA19">
+        <v>0</v>
+      </c>
+      <c r="EB19">
+        <v>0</v>
+      </c>
+      <c r="EC19">
+        <v>0</v>
+      </c>
+      <c r="ED19">
+        <v>0</v>
+      </c>
+      <c r="EE19">
+        <v>4</v>
+      </c>
+      <c r="EF19">
+        <v>0</v>
+      </c>
+      <c r="EG19">
+        <v>0</v>
+      </c>
+      <c r="EH19">
+        <v>0</v>
+      </c>
+      <c r="EI19">
+        <v>0</v>
+      </c>
+      <c r="EJ19">
+        <v>51</v>
+      </c>
+      <c r="EK19">
         <v>10</v>
       </c>
-      <c r="DF19">
-        <v>11</v>
-      </c>
-      <c r="DG19">
+      <c r="EL19">
+        <v>0</v>
+      </c>
+      <c r="EM19">
+        <v>0</v>
+      </c>
+      <c r="EN19">
+        <v>1</v>
+      </c>
+      <c r="EO19">
+        <v>0</v>
+      </c>
+      <c r="EP19">
+        <v>0</v>
+      </c>
+      <c r="EQ19">
+        <v>10</v>
+      </c>
+      <c r="ER19">
+        <v>0</v>
+      </c>
+      <c r="ES19">
+        <v>0</v>
+      </c>
+      <c r="ET19">
+        <v>0</v>
+      </c>
+      <c r="EU19">
+        <v>0</v>
+      </c>
+      <c r="EV19">
+        <v>0</v>
+      </c>
+      <c r="EW19">
+        <v>0</v>
+      </c>
+      <c r="EX19">
+        <v>0</v>
+      </c>
+      <c r="EY19">
+        <v>0</v>
+      </c>
+      <c r="EZ19">
         <v>200</v>
       </c>
-      <c r="DH19">
+      <c r="FA19">
+        <v>0</v>
+      </c>
+      <c r="FB19">
+        <v>0</v>
+      </c>
+      <c r="FC19">
+        <v>0</v>
+      </c>
+      <c r="FD19">
+        <v>0</v>
+      </c>
+      <c r="FE19">
+        <v>0</v>
+      </c>
+      <c r="FF19">
+        <v>0</v>
+      </c>
+      <c r="FG19">
         <v>50</v>
       </c>
-      <c r="DI19">
-        <v>170</v>
-      </c>
-      <c r="DJ19">
-        <v>164</v>
-      </c>
-      <c r="DK19">
-        <v>1246</v>
-      </c>
-      <c r="DL19">
-        <v>172</v>
-      </c>
-      <c r="DM19">
-        <v>252</v>
-      </c>
-      <c r="DN19">
-        <v>320</v>
-      </c>
-      <c r="DO19">
-        <v>1</v>
-      </c>
-      <c r="DP19">
-        <v>96</v>
-      </c>
-      <c r="DQ19">
-        <v>4</v>
-      </c>
-      <c r="DR19">
-        <v>385</v>
-      </c>
-      <c r="DS19">
-        <v>720</v>
-      </c>
-      <c r="DT19">
-        <v>0</v>
-      </c>
-      <c r="DU19">
-        <v>102</v>
-      </c>
-      <c r="DV19">
-        <v>100</v>
-      </c>
-      <c r="DW19">
-        <v>40</v>
-      </c>
-      <c r="DX19">
-        <v>30</v>
-      </c>
-      <c r="DY19">
-        <v>266</v>
-      </c>
-      <c r="DZ19">
-        <v>675</v>
-      </c>
-      <c r="EA19">
-        <v>3</v>
-      </c>
-      <c r="EB19">
-        <v>60</v>
-      </c>
-      <c r="EC19">
-        <v>56</v>
-      </c>
-      <c r="ED19">
-        <v>346</v>
-      </c>
-      <c r="EE19">
-        <v>184</v>
-      </c>
-      <c r="EF19">
-        <v>1227</v>
-      </c>
-      <c r="EG19">
-        <v>302</v>
-      </c>
-      <c r="EH19">
-        <v>2</v>
-      </c>
-      <c r="EI19">
-        <v>524</v>
-      </c>
-      <c r="EJ19">
-        <v>8815</v>
-      </c>
-      <c r="EK19">
-        <v>140</v>
-      </c>
-      <c r="EL19">
-        <v>263</v>
-      </c>
-      <c r="EM19">
-        <v>1392</v>
-      </c>
-      <c r="EN19">
-        <v>161</v>
-      </c>
-      <c r="EO19">
-        <v>762</v>
-      </c>
-      <c r="EP19">
-        <v>544</v>
-      </c>
-      <c r="EQ19">
-        <v>11813</v>
-      </c>
-      <c r="ER19">
-        <v>400</v>
-      </c>
-      <c r="ES19">
-        <v>219</v>
-      </c>
-      <c r="ET19">
-        <v>3069</v>
-      </c>
-      <c r="EU19">
-        <v>1012</v>
-      </c>
-      <c r="EV19">
-        <v>1366</v>
-      </c>
-      <c r="EW19">
-        <v>216</v>
-      </c>
-      <c r="EX19">
-        <v>3</v>
-      </c>
-      <c r="EY19">
-        <v>276</v>
-      </c>
-      <c r="EZ19">
-        <v>602</v>
-      </c>
-      <c r="FA19">
-        <v>0</v>
-      </c>
-      <c r="FB19">
-        <v>1732</v>
-      </c>
-      <c r="FC19">
-        <v>20</v>
-      </c>
-      <c r="FD19">
-        <v>0</v>
-      </c>
-      <c r="FE19">
-        <v>40</v>
-      </c>
-      <c r="FF19">
-        <v>22</v>
-      </c>
-      <c r="FG19">
-        <v>172</v>
-      </c>
       <c r="FH19">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="FI19">
         <v>0</v>
       </c>
       <c r="FJ19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="FK19">
         <v>0</v>
@@ -36985,28 +36994,28 @@
         <v>0</v>
       </c>
       <c r="FM19">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="FN19">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="FO19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="FP19">
         <v>30</v>
       </c>
       <c r="FQ19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FR19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="FS19">
         <v>0</v>
       </c>
       <c r="FT19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="FU19">
         <v>0</v>
@@ -37018,28 +37027,28 @@
         <v>0</v>
       </c>
       <c r="FX19">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="FY19">
         <v>0</v>
       </c>
       <c r="FZ19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="GA19">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="GB19">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="GC19">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="GD19">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="GE19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="GF19">
         <v>0</v>
@@ -37050,10 +37059,10 @@
         <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E20">
         <v>67045503.78000005</v>
@@ -37613,10 +37622,10 @@
         <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E21">
         <v>67045503.78000005</v>
@@ -38176,10 +38185,10 @@
         <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E22">
         <v>50196017.54000003</v>
@@ -38212,7 +38221,7 @@
         <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P22">
         <v>136227</v>
@@ -38739,10 +38748,10 @@
         <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E23">
         <v>50196017.54000003</v>
@@ -38775,7 +38784,7 @@
         <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -39344,32 +39353,32 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -39392,13 +39401,13 @@
   <sheetData>
     <row r="1" spans="1:179">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -39920,13 +39929,13 @@
         <v>186</v>
       </c>
       <c r="FU1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="FV1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="FW1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:179">
@@ -41009,7 +41018,7 @@
     </row>
     <row r="4" spans="1:179">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
         <v>188</v>
@@ -42626,7 +42635,7 @@
     </row>
     <row r="7" spans="1:179">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
         <v>197</v>
@@ -44243,7 +44252,7 @@
     </row>
     <row r="10" spans="1:179">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>201</v>
@@ -45860,7 +45869,7 @@
     </row>
     <row r="13" spans="1:179">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B13" t="s">
         <v>205</v>
@@ -47477,7 +47486,7 @@
     </row>
     <row r="16" spans="1:179">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
         <v>209</v>
@@ -49094,7 +49103,7 @@
     </row>
     <row r="19" spans="1:179">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B19" t="s">
         <v>213</v>
@@ -50711,7 +50720,7 @@
     </row>
     <row r="22" spans="1:179">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
         <v>217</v>
@@ -51253,7 +51262,7 @@
         <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -51792,7 +51801,7 @@
         <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -52328,10 +52337,10 @@
     </row>
     <row r="25" spans="1:179">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C25">
         <v>19</v>
@@ -52870,7 +52879,7 @@
         <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -52939,157 +52948,157 @@
         <v>5523</v>
       </c>
       <c r="Y26">
-        <v>4170</v>
+        <v>5510</v>
       </c>
       <c r="Z26">
-        <v>4166</v>
+        <v>5506</v>
       </c>
       <c r="AA26">
-        <v>3930</v>
+        <v>5270</v>
       </c>
       <c r="AB26">
-        <v>3109</v>
+        <v>4991</v>
       </c>
       <c r="AC26">
-        <v>2825</v>
+        <v>4897</v>
       </c>
       <c r="AD26">
-        <v>2087</v>
+        <v>4159</v>
       </c>
       <c r="AE26">
-        <v>2072</v>
+        <v>4144</v>
       </c>
       <c r="AF26">
-        <v>520</v>
+        <v>3810</v>
       </c>
       <c r="AG26">
-        <v>318</v>
+        <v>3810</v>
       </c>
       <c r="AH26">
-        <v>318</v>
+        <v>3810</v>
       </c>
       <c r="AI26">
-        <v>288</v>
+        <v>3780</v>
       </c>
       <c r="AJ26">
-        <v>288</v>
+        <v>3780</v>
       </c>
       <c r="AK26">
-        <v>288</v>
+        <v>3780</v>
       </c>
       <c r="AL26">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="AM26">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="AN26">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="AO26">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="AP26">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="AQ26">
-        <v>208</v>
+        <v>3780</v>
       </c>
       <c r="AR26">
-        <v>10208</v>
+        <v>10780</v>
       </c>
       <c r="AS26">
-        <v>10208</v>
+        <v>10780</v>
       </c>
       <c r="AT26">
-        <v>8160</v>
+        <v>9232</v>
       </c>
       <c r="AU26">
-        <v>8160</v>
+        <v>9232</v>
       </c>
       <c r="AV26">
-        <v>7745</v>
+        <v>8917</v>
       </c>
       <c r="AW26">
-        <v>6935</v>
+        <v>8467</v>
       </c>
       <c r="AX26">
-        <v>6722</v>
+        <v>8327</v>
       </c>
       <c r="AY26">
-        <v>6502</v>
+        <v>8107</v>
       </c>
       <c r="AZ26">
-        <v>6022</v>
+        <v>8087</v>
       </c>
       <c r="BA26">
-        <v>5922</v>
+        <v>8287</v>
       </c>
       <c r="BB26">
-        <v>4022</v>
+        <v>6387</v>
       </c>
       <c r="BC26">
-        <v>505</v>
+        <v>4276</v>
       </c>
       <c r="BD26">
-        <v>315</v>
+        <v>4086</v>
       </c>
       <c r="BE26">
-        <v>315</v>
+        <v>4086</v>
       </c>
       <c r="BF26">
-        <v>314</v>
+        <v>4085</v>
       </c>
       <c r="BG26">
-        <v>1678</v>
+        <v>5449</v>
       </c>
       <c r="BH26">
-        <v>1619</v>
+        <v>5390</v>
       </c>
       <c r="BI26">
-        <v>1569</v>
+        <v>5340</v>
       </c>
       <c r="BJ26">
-        <v>1475</v>
+        <v>5246</v>
       </c>
       <c r="BK26">
-        <v>1403</v>
+        <v>5174</v>
       </c>
       <c r="BL26">
-        <v>1358</v>
+        <v>5129</v>
       </c>
       <c r="BM26">
-        <v>1246</v>
+        <v>5017</v>
       </c>
       <c r="BN26">
-        <v>1244</v>
+        <v>5009</v>
       </c>
       <c r="BO26">
-        <v>1117</v>
+        <v>4888</v>
       </c>
       <c r="BP26">
-        <v>1111</v>
+        <v>4882</v>
       </c>
       <c r="BQ26">
-        <v>1100</v>
+        <v>4871</v>
       </c>
       <c r="BR26">
-        <v>800</v>
+        <v>4571</v>
       </c>
       <c r="BS26">
-        <v>250</v>
+        <v>4021</v>
       </c>
       <c r="BT26">
-        <v>1735</v>
+        <v>5506</v>
       </c>
       <c r="BU26">
-        <v>1196</v>
+        <v>4967</v>
       </c>
       <c r="BV26">
-        <v>1166</v>
+        <v>4937</v>
       </c>
       <c r="BW26">
-        <v>1099</v>
+        <v>4870</v>
       </c>
       <c r="BX26">
         <v>21005</v>
@@ -53248,97 +53257,97 @@
         <v>32847</v>
       </c>
       <c r="DX26">
-        <v>24032</v>
+        <v>27357</v>
       </c>
       <c r="DY26">
-        <v>23892</v>
+        <v>27237</v>
       </c>
       <c r="DZ26">
-        <v>23852</v>
+        <v>27197</v>
       </c>
       <c r="EA26">
-        <v>22237</v>
+        <v>25834</v>
       </c>
       <c r="EB26">
-        <v>22076</v>
+        <v>25761</v>
       </c>
       <c r="EC26">
-        <v>21864</v>
+        <v>25549</v>
       </c>
       <c r="ED26">
-        <v>20770</v>
+        <v>24469</v>
       </c>
       <c r="EE26">
-        <v>8957</v>
+        <v>12676</v>
       </c>
       <c r="EF26">
-        <v>8556</v>
+        <v>12275</v>
       </c>
       <c r="EG26">
-        <v>8294</v>
+        <v>12117</v>
       </c>
       <c r="EH26">
-        <v>5225</v>
+        <v>9048</v>
       </c>
       <c r="EI26">
-        <v>4363</v>
+        <v>8186</v>
       </c>
       <c r="EJ26">
-        <v>2847</v>
+        <v>6670</v>
       </c>
       <c r="EK26">
-        <v>2631</v>
+        <v>6480</v>
       </c>
       <c r="EL26">
-        <v>2628</v>
+        <v>6477</v>
       </c>
       <c r="EM26">
-        <v>2452</v>
+        <v>6301</v>
       </c>
       <c r="EN26">
-        <v>1762</v>
+        <v>5611</v>
       </c>
       <c r="EO26">
-        <v>1762</v>
+        <v>5611</v>
       </c>
       <c r="EP26">
-        <v>30</v>
+        <v>3883</v>
       </c>
       <c r="EQ26">
-        <v>10</v>
+        <v>3863</v>
       </c>
       <c r="ER26">
-        <v>10</v>
+        <v>3863</v>
       </c>
       <c r="ES26">
-        <v>269</v>
+        <v>4122</v>
       </c>
       <c r="ET26">
-        <v>253</v>
+        <v>4106</v>
       </c>
       <c r="EU26">
-        <v>81</v>
+        <v>3934</v>
       </c>
       <c r="EV26">
-        <v>32</v>
+        <v>3885</v>
       </c>
       <c r="EW26">
-        <v>32</v>
+        <v>3885</v>
       </c>
       <c r="EX26">
-        <v>17</v>
+        <v>3870</v>
       </c>
       <c r="EY26">
-        <v>17</v>
+        <v>3870</v>
       </c>
       <c r="EZ26">
-        <v>17</v>
+        <v>3870</v>
       </c>
       <c r="FA26">
-        <v>27</v>
+        <v>3880</v>
       </c>
       <c r="FB26">
-        <v>17</v>
+        <v>3870</v>
       </c>
       <c r="FC26">
         <v>10002</v>
@@ -53395,7 +53404,7 @@
         <v>10357</v>
       </c>
       <c r="FU26">
-        <v>2464865</v>
+        <v>2731092</v>
       </c>
       <c r="FV26">
         <v>0</v>
@@ -53409,7 +53418,7 @@
         <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -53418,97 +53427,97 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>2380</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>1795</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2482</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1408</v>
+        <v>10</v>
       </c>
       <c r="S27">
-        <v>1528</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>1453</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>721</v>
+        <v>30</v>
       </c>
       <c r="AC27">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>753</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="AH27">
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
         <v>0</v>
@@ -53517,7 +53526,7 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -53538,37 +53547,37 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>1448</v>
+        <v>40</v>
       </c>
       <c r="AU27">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="AV27">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="AW27">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="AX27">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AY27">
-        <v>580</v>
+        <v>20</v>
       </c>
       <c r="AZ27">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="BA27">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="BB27">
-        <v>1524</v>
+        <v>0</v>
       </c>
       <c r="BC27">
-        <v>3695</v>
+        <v>3505</v>
       </c>
       <c r="BD27">
         <v>0</v>
@@ -53577,295 +53586,295 @@
         <v>0</v>
       </c>
       <c r="BF27">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BG27">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="BH27">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BI27">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="BJ27">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="BK27">
         <v>6</v>
       </c>
       <c r="BL27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BM27">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="BN27">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="BO27">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="BP27">
         <v>0</v>
       </c>
       <c r="BQ27">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27">
+        <v>6</v>
+      </c>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BY27">
+        <v>0</v>
+      </c>
+      <c r="BZ27">
+        <v>15</v>
+      </c>
+      <c r="CA27">
+        <v>115</v>
+      </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
+      <c r="CC27">
+        <v>0</v>
+      </c>
+      <c r="CD27">
+        <v>0</v>
+      </c>
+      <c r="CE27">
+        <v>0</v>
+      </c>
+      <c r="CF27">
+        <v>0</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CH27">
         <v>10</v>
       </c>
-      <c r="BS27">
-        <v>0</v>
-      </c>
-      <c r="BT27">
-        <v>0</v>
-      </c>
-      <c r="BU27">
-        <v>0</v>
-      </c>
-      <c r="BV27">
-        <v>569</v>
-      </c>
-      <c r="BW27">
-        <v>73</v>
-      </c>
-      <c r="BX27">
-        <v>2</v>
-      </c>
-      <c r="BY27">
-        <v>192</v>
-      </c>
-      <c r="BZ27">
-        <v>77</v>
-      </c>
-      <c r="CA27">
-        <v>174</v>
-      </c>
-      <c r="CB27">
-        <v>154</v>
-      </c>
-      <c r="CC27">
-        <v>532</v>
-      </c>
-      <c r="CD27">
-        <v>500</v>
-      </c>
-      <c r="CE27">
-        <v>273</v>
-      </c>
-      <c r="CF27">
-        <v>1045</v>
-      </c>
-      <c r="CG27">
-        <v>250</v>
-      </c>
-      <c r="CH27">
-        <v>407</v>
-      </c>
       <c r="CI27">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="CJ27">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="CK27">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="CL27">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="CM27">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="CN27">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="CO27">
-        <v>1229</v>
+        <v>0</v>
       </c>
       <c r="CP27">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="CQ27">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="CR27">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="CS27">
+        <v>0</v>
+      </c>
+      <c r="CT27">
+        <v>0</v>
+      </c>
+      <c r="CU27">
+        <v>0</v>
+      </c>
+      <c r="CV27">
+        <v>0</v>
+      </c>
+      <c r="CW27">
+        <v>0</v>
+      </c>
+      <c r="CX27">
+        <v>0</v>
+      </c>
+      <c r="CY27">
+        <v>0</v>
+      </c>
+      <c r="CZ27">
+        <v>0</v>
+      </c>
+      <c r="DA27">
+        <v>0</v>
+      </c>
+      <c r="DB27">
+        <v>0</v>
+      </c>
+      <c r="DC27">
+        <v>0</v>
+      </c>
+      <c r="DD27">
+        <v>0</v>
+      </c>
+      <c r="DE27">
+        <v>0</v>
+      </c>
+      <c r="DF27">
+        <v>0</v>
+      </c>
+      <c r="DG27">
+        <v>0</v>
+      </c>
+      <c r="DH27">
+        <v>0</v>
+      </c>
+      <c r="DI27">
+        <v>0</v>
+      </c>
+      <c r="DJ27">
+        <v>0</v>
+      </c>
+      <c r="DK27">
+        <v>0</v>
+      </c>
+      <c r="DL27">
+        <v>0</v>
+      </c>
+      <c r="DM27">
+        <v>0</v>
+      </c>
+      <c r="DN27">
+        <v>0</v>
+      </c>
+      <c r="DO27">
+        <v>0</v>
+      </c>
+      <c r="DP27">
+        <v>0</v>
+      </c>
+      <c r="DQ27">
+        <v>0</v>
+      </c>
+      <c r="DR27">
+        <v>0</v>
+      </c>
+      <c r="DS27">
+        <v>4</v>
+      </c>
+      <c r="DT27">
+        <v>0</v>
+      </c>
+      <c r="DU27">
+        <v>0</v>
+      </c>
+      <c r="DV27">
+        <v>0</v>
+      </c>
+      <c r="DW27">
+        <v>0</v>
+      </c>
+      <c r="DX27">
+        <v>51</v>
+      </c>
+      <c r="DY27">
         <v>10</v>
       </c>
-      <c r="CT27">
-        <v>11</v>
-      </c>
-      <c r="CU27">
+      <c r="DZ27">
+        <v>0</v>
+      </c>
+      <c r="EA27">
+        <v>0</v>
+      </c>
+      <c r="EB27">
+        <v>1</v>
+      </c>
+      <c r="EC27">
+        <v>0</v>
+      </c>
+      <c r="ED27">
+        <v>0</v>
+      </c>
+      <c r="EE27">
+        <v>10</v>
+      </c>
+      <c r="EF27">
+        <v>0</v>
+      </c>
+      <c r="EG27">
+        <v>0</v>
+      </c>
+      <c r="EH27">
+        <v>0</v>
+      </c>
+      <c r="EI27">
+        <v>0</v>
+      </c>
+      <c r="EJ27">
+        <v>0</v>
+      </c>
+      <c r="EK27">
+        <v>0</v>
+      </c>
+      <c r="EL27">
+        <v>0</v>
+      </c>
+      <c r="EM27">
+        <v>0</v>
+      </c>
+      <c r="EN27">
         <v>200</v>
       </c>
-      <c r="CV27">
+      <c r="EO27">
+        <v>0</v>
+      </c>
+      <c r="EP27">
+        <v>0</v>
+      </c>
+      <c r="EQ27">
+        <v>0</v>
+      </c>
+      <c r="ER27">
+        <v>0</v>
+      </c>
+      <c r="ES27">
+        <v>0</v>
+      </c>
+      <c r="ET27">
+        <v>0</v>
+      </c>
+      <c r="EU27">
         <v>50</v>
       </c>
-      <c r="CW27">
-        <v>170</v>
-      </c>
-      <c r="CX27">
-        <v>164</v>
-      </c>
-      <c r="CY27">
-        <v>1246</v>
-      </c>
-      <c r="CZ27">
-        <v>172</v>
-      </c>
-      <c r="DA27">
-        <v>252</v>
-      </c>
-      <c r="DB27">
-        <v>320</v>
-      </c>
-      <c r="DC27">
-        <v>1</v>
-      </c>
-      <c r="DD27">
-        <v>96</v>
-      </c>
-      <c r="DE27">
-        <v>4</v>
-      </c>
-      <c r="DF27">
-        <v>385</v>
-      </c>
-      <c r="DG27">
-        <v>720</v>
-      </c>
-      <c r="DH27">
-        <v>0</v>
-      </c>
-      <c r="DI27">
-        <v>102</v>
-      </c>
-      <c r="DJ27">
-        <v>100</v>
-      </c>
-      <c r="DK27">
-        <v>40</v>
-      </c>
-      <c r="DL27">
-        <v>30</v>
-      </c>
-      <c r="DM27">
-        <v>266</v>
-      </c>
-      <c r="DN27">
-        <v>675</v>
-      </c>
-      <c r="DO27">
-        <v>3</v>
-      </c>
-      <c r="DP27">
-        <v>60</v>
-      </c>
-      <c r="DQ27">
-        <v>56</v>
-      </c>
-      <c r="DR27">
-        <v>346</v>
-      </c>
-      <c r="DS27">
-        <v>184</v>
-      </c>
-      <c r="DT27">
-        <v>1227</v>
-      </c>
-      <c r="DU27">
-        <v>302</v>
-      </c>
-      <c r="DV27">
-        <v>2</v>
-      </c>
-      <c r="DW27">
-        <v>524</v>
-      </c>
-      <c r="DX27">
-        <v>8815</v>
-      </c>
-      <c r="DY27">
-        <v>140</v>
-      </c>
-      <c r="DZ27">
-        <v>263</v>
-      </c>
-      <c r="EA27">
-        <v>1392</v>
-      </c>
-      <c r="EB27">
-        <v>161</v>
-      </c>
-      <c r="EC27">
-        <v>762</v>
-      </c>
-      <c r="ED27">
-        <v>544</v>
-      </c>
-      <c r="EE27">
-        <v>11813</v>
-      </c>
-      <c r="EF27">
-        <v>400</v>
-      </c>
-      <c r="EG27">
-        <v>219</v>
-      </c>
-      <c r="EH27">
-        <v>3069</v>
-      </c>
-      <c r="EI27">
-        <v>1012</v>
-      </c>
-      <c r="EJ27">
-        <v>1366</v>
-      </c>
-      <c r="EK27">
-        <v>216</v>
-      </c>
-      <c r="EL27">
-        <v>3</v>
-      </c>
-      <c r="EM27">
-        <v>276</v>
-      </c>
-      <c r="EN27">
-        <v>602</v>
-      </c>
-      <c r="EO27">
-        <v>0</v>
-      </c>
-      <c r="EP27">
-        <v>1732</v>
-      </c>
-      <c r="EQ27">
-        <v>20</v>
-      </c>
-      <c r="ER27">
-        <v>0</v>
-      </c>
-      <c r="ES27">
-        <v>40</v>
-      </c>
-      <c r="ET27">
-        <v>22</v>
-      </c>
-      <c r="EU27">
-        <v>172</v>
-      </c>
       <c r="EV27">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="EW27">
         <v>0</v>
       </c>
       <c r="EX27">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="EY27">
         <v>0</v>
@@ -53874,28 +53883,28 @@
         <v>0</v>
       </c>
       <c r="FA27">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="FB27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="FC27">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="FD27">
         <v>30</v>
       </c>
       <c r="FE27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FF27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="FG27">
         <v>0</v>
       </c>
       <c r="FH27">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="FI27">
         <v>0</v>
@@ -53907,34 +53916,34 @@
         <v>0</v>
       </c>
       <c r="FL27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="FM27">
         <v>0</v>
       </c>
       <c r="FN27">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="FO27">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="FP27">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="FQ27">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="FR27">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="FS27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="FT27">
         <v>0</v>
       </c>
       <c r="FU27">
-        <v>80823</v>
+        <v>4324</v>
       </c>
       <c r="FV27">
         <v>0</v>
@@ -53945,10 +53954,10 @@
     </row>
     <row r="28" spans="1:179">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C28">
         <v>4454</v>
@@ -53957,106 +53966,106 @@
         <v>-217</v>
       </c>
       <c r="E28">
-        <v>37</v>
+        <v>-186</v>
       </c>
       <c r="F28">
-        <v>180</v>
+        <v>-410</v>
       </c>
       <c r="G28">
-        <v>-120</v>
+        <v>-2500</v>
       </c>
       <c r="H28">
-        <v>14920</v>
+        <v>14638</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J28">
-        <v>-300</v>
+        <v>-650</v>
       </c>
       <c r="K28">
-        <v>244</v>
+        <v>-256</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>-495</v>
       </c>
       <c r="M28">
-        <v>1745</v>
+        <v>-50</v>
       </c>
       <c r="N28">
-        <v>-532</v>
+        <v>-3014</v>
       </c>
       <c r="O28">
-        <v>365</v>
+        <v>-317</v>
       </c>
       <c r="P28">
-        <v>167</v>
+        <v>-150</v>
       </c>
       <c r="Q28">
         <v>-28</v>
       </c>
       <c r="R28">
-        <v>-350</v>
+        <v>-1748</v>
       </c>
       <c r="S28">
-        <v>121</v>
+        <v>-1407</v>
       </c>
       <c r="T28">
-        <v>-523</v>
+        <v>-780</v>
       </c>
       <c r="U28">
-        <v>224</v>
+        <v>-556</v>
       </c>
       <c r="V28">
-        <v>106</v>
+        <v>-540</v>
       </c>
       <c r="W28">
-        <v>395</v>
+        <v>-55</v>
       </c>
       <c r="X28">
-        <v>-1298</v>
+        <v>-13</v>
       </c>
       <c r="Y28">
-        <v>1449</v>
+        <v>-4</v>
       </c>
       <c r="Z28">
-        <v>-232</v>
+        <v>-236</v>
       </c>
       <c r="AA28">
-        <v>-585</v>
+        <v>-279</v>
       </c>
       <c r="AB28">
-        <v>437</v>
+        <v>-64</v>
       </c>
       <c r="AC28">
-        <v>-454</v>
+        <v>-738</v>
       </c>
       <c r="AD28">
-        <v>738</v>
+        <v>-15</v>
       </c>
       <c r="AE28">
-        <v>-10</v>
+        <v>-334</v>
       </c>
       <c r="AF28">
-        <v>-192</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="AH28">
         <v>-30</v>
       </c>
       <c r="AI28">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
         <v>0</v>
       </c>
       <c r="AK28">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -54071,43 +54080,43 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="AR28">
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>-1448</v>
+        <v>-1548</v>
       </c>
       <c r="AT28">
-        <v>1448</v>
+        <v>40</v>
       </c>
       <c r="AU28">
-        <v>-40</v>
+        <v>-315</v>
       </c>
       <c r="AV28">
-        <v>-520</v>
+        <v>-450</v>
       </c>
       <c r="AW28">
-        <v>360</v>
+        <v>-140</v>
       </c>
       <c r="AX28">
-        <v>-20</v>
+        <v>-200</v>
       </c>
       <c r="AY28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AZ28">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="BA28">
-        <v>-1500</v>
+        <v>-1900</v>
       </c>
       <c r="BB28">
-        <v>-1993</v>
+        <v>-2111</v>
       </c>
       <c r="BC28">
-        <v>3505</v>
+        <v>3315</v>
       </c>
       <c r="BD28">
         <v>0</v>
@@ -54116,43 +54125,43 @@
         <v>-1</v>
       </c>
       <c r="BF28">
-        <v>1380</v>
+        <v>1364</v>
       </c>
       <c r="BG28">
-        <v>86</v>
+        <v>-59</v>
       </c>
       <c r="BH28">
-        <v>-16</v>
+        <v>-50</v>
       </c>
       <c r="BI28">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="BJ28">
-        <v>76</v>
+        <v>-34</v>
       </c>
       <c r="BK28">
         <v>-39</v>
       </c>
       <c r="BL28">
-        <v>-92</v>
+        <v>-112</v>
       </c>
       <c r="BM28">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="BN28">
-        <v>183</v>
+        <v>-121</v>
       </c>
       <c r="BO28">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="BP28">
         <v>-11</v>
       </c>
       <c r="BQ28">
-        <v>288</v>
+        <v>-300</v>
       </c>
       <c r="BR28">
-        <v>-540</v>
+        <v>-550</v>
       </c>
       <c r="BS28">
         <v>1485</v>
@@ -54164,247 +54173,247 @@
         <v>-30</v>
       </c>
       <c r="BV28">
-        <v>502</v>
+        <v>-67</v>
       </c>
       <c r="BW28">
-        <v>19979</v>
+        <v>16141</v>
       </c>
       <c r="BX28">
-        <v>-233</v>
+        <v>-235</v>
       </c>
       <c r="BY28">
-        <v>89</v>
+        <v>-103</v>
       </c>
       <c r="BZ28">
-        <v>38</v>
+        <v>-24</v>
       </c>
       <c r="CA28">
-        <v>-20</v>
+        <v>-79</v>
       </c>
       <c r="CB28">
-        <v>21684</v>
+        <v>21530</v>
       </c>
       <c r="CC28">
-        <v>24</v>
+        <v>-508</v>
       </c>
       <c r="CD28">
-        <v>413</v>
+        <v>-87</v>
       </c>
       <c r="CE28">
-        <v>233</v>
+        <v>-40</v>
       </c>
       <c r="CF28">
-        <v>705</v>
+        <v>-340</v>
       </c>
       <c r="CG28">
-        <v>163</v>
+        <v>-87</v>
       </c>
       <c r="CH28">
-        <v>-1443</v>
+        <v>-1840</v>
       </c>
       <c r="CI28">
-        <v>64</v>
+        <v>-8</v>
       </c>
       <c r="CJ28">
-        <v>39</v>
+        <v>-174</v>
       </c>
       <c r="CK28">
-        <v>42</v>
+        <v>-108</v>
       </c>
       <c r="CL28">
+        <v>-634</v>
+      </c>
+      <c r="CM28">
+        <v>-275</v>
+      </c>
+      <c r="CN28">
+        <v>-54</v>
+      </c>
+      <c r="CO28">
+        <v>-999</v>
+      </c>
+      <c r="CP28">
+        <v>-196</v>
+      </c>
+      <c r="CQ28">
+        <v>0</v>
+      </c>
+      <c r="CR28">
+        <v>-60</v>
+      </c>
+      <c r="CS28">
+        <v>-11</v>
+      </c>
+      <c r="CT28">
+        <v>-200</v>
+      </c>
+      <c r="CU28">
+        <v>-50</v>
+      </c>
+      <c r="CV28">
+        <v>-170</v>
+      </c>
+      <c r="CW28">
+        <v>-164</v>
+      </c>
+      <c r="CX28">
+        <v>-1046</v>
+      </c>
+      <c r="CY28">
         <v>-372</v>
       </c>
-      <c r="CM28">
-        <v>-77</v>
-      </c>
-      <c r="CN28">
-        <v>164</v>
-      </c>
-      <c r="CO28">
-        <v>230</v>
-      </c>
-      <c r="CP28">
-        <v>-164</v>
-      </c>
-      <c r="CQ28">
-        <v>158</v>
-      </c>
-      <c r="CR28">
-        <v>34</v>
-      </c>
-      <c r="CS28">
-        <v>-1</v>
-      </c>
-      <c r="CT28">
-        <v>-189</v>
-      </c>
-      <c r="CU28">
-        <v>150</v>
-      </c>
-      <c r="CV28">
-        <v>-120</v>
-      </c>
-      <c r="CW28">
-        <v>6</v>
-      </c>
-      <c r="CX28">
-        <v>-882</v>
-      </c>
-      <c r="CY28">
-        <v>874</v>
-      </c>
       <c r="CZ28">
-        <v>-80</v>
+        <v>-252</v>
       </c>
       <c r="DA28">
-        <v>-27</v>
+        <v>-279</v>
       </c>
       <c r="DB28">
-        <v>299</v>
+        <v>-21</v>
       </c>
       <c r="DC28">
-        <v>-95</v>
+        <v>-96</v>
       </c>
       <c r="DD28">
-        <v>92</v>
+        <v>-4</v>
       </c>
       <c r="DE28">
-        <v>-381</v>
+        <v>-385</v>
       </c>
       <c r="DF28">
-        <v>-22373</v>
+        <v>-22758</v>
       </c>
       <c r="DG28">
-        <v>22758</v>
+        <v>22038</v>
       </c>
       <c r="DH28">
         <v>-102</v>
       </c>
       <c r="DI28">
-        <v>2</v>
+        <v>-100</v>
       </c>
       <c r="DJ28">
-        <v>60</v>
+        <v>-40</v>
       </c>
       <c r="DK28">
-        <v>10</v>
+        <v>-30</v>
       </c>
       <c r="DL28">
-        <v>-236</v>
+        <v>-266</v>
       </c>
       <c r="DM28">
-        <v>-409</v>
+        <v>-675</v>
       </c>
       <c r="DN28">
-        <v>672</v>
+        <v>-3</v>
       </c>
       <c r="DO28">
-        <v>-57</v>
+        <v>-60</v>
       </c>
       <c r="DP28">
-        <v>4</v>
+        <v>-56</v>
       </c>
       <c r="DQ28">
-        <v>-290</v>
+        <v>-346</v>
       </c>
       <c r="DR28">
-        <v>4162</v>
+        <v>3816</v>
       </c>
       <c r="DS28">
-        <v>-1043</v>
+        <v>-1223</v>
       </c>
       <c r="DT28">
-        <v>929</v>
+        <v>-298</v>
       </c>
       <c r="DU28">
-        <v>296</v>
+        <v>-6</v>
       </c>
       <c r="DV28">
-        <v>-522</v>
+        <v>-524</v>
       </c>
       <c r="DW28">
-        <v>-8291</v>
+        <v>-5490</v>
       </c>
       <c r="DX28">
-        <v>8675</v>
+        <v>-69</v>
       </c>
       <c r="DY28">
-        <v>100</v>
+        <v>-30</v>
       </c>
       <c r="DZ28">
-        <v>-1352</v>
+        <v>-1363</v>
       </c>
       <c r="EA28">
-        <v>1231</v>
+        <v>-73</v>
       </c>
       <c r="EB28">
-        <v>-51</v>
+        <v>-211</v>
       </c>
       <c r="EC28">
-        <v>-332</v>
+        <v>-1080</v>
       </c>
       <c r="ED28">
-        <v>-11269</v>
+        <v>-11793</v>
       </c>
       <c r="EE28">
-        <v>11412</v>
+        <v>-391</v>
       </c>
       <c r="EF28">
-        <v>138</v>
+        <v>-158</v>
       </c>
       <c r="EG28">
-        <v>-2850</v>
+        <v>-3069</v>
       </c>
       <c r="EH28">
-        <v>2207</v>
+        <v>-862</v>
       </c>
       <c r="EI28">
-        <v>-504</v>
+        <v>-1516</v>
       </c>
       <c r="EJ28">
-        <v>1150</v>
+        <v>-190</v>
       </c>
       <c r="EK28">
-        <v>213</v>
+        <v>-3</v>
       </c>
       <c r="EL28">
-        <v>-173</v>
+        <v>-176</v>
       </c>
       <c r="EM28">
-        <v>-414</v>
+        <v>-690</v>
       </c>
       <c r="EN28">
-        <v>602</v>
+        <v>200</v>
       </c>
       <c r="EO28">
-        <v>-1732</v>
+        <v>-1728</v>
       </c>
       <c r="EP28">
-        <v>1712</v>
+        <v>-20</v>
       </c>
       <c r="EQ28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="ER28">
         <v>259</v>
       </c>
       <c r="ES28">
-        <v>24</v>
+        <v>-16</v>
       </c>
       <c r="ET28">
-        <v>-150</v>
+        <v>-172</v>
       </c>
       <c r="EU28">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="EV28">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="EW28">
         <v>-15</v>
       </c>
       <c r="EX28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="EY28">
         <v>0</v>
@@ -54413,28 +54422,28 @@
         <v>10</v>
       </c>
       <c r="FA28">
-        <v>150</v>
+        <v>-10</v>
       </c>
       <c r="FB28">
-        <v>9995</v>
+        <v>6132</v>
       </c>
       <c r="FC28">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="FD28">
         <v>26</v>
       </c>
       <c r="FE28">
-        <v>-46</v>
+        <v>-50</v>
       </c>
       <c r="FF28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="FG28">
         <v>-15</v>
       </c>
       <c r="FH28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="FI28">
         <v>0</v>
@@ -54446,40 +54455,40 @@
         <v>-50</v>
       </c>
       <c r="FL28">
-        <v>1044</v>
+        <v>994</v>
       </c>
       <c r="FM28">
         <v>-30</v>
       </c>
       <c r="FN28">
-        <v>-10</v>
+        <v>-40</v>
       </c>
       <c r="FO28">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="FP28">
-        <v>-96</v>
+        <v>-156</v>
       </c>
       <c r="FQ28">
-        <v>-21</v>
+        <v>-177</v>
       </c>
       <c r="FR28">
-        <v>157</v>
+        <v>-11</v>
       </c>
       <c r="FS28">
-        <v>13</v>
+        <v>-7</v>
       </c>
       <c r="FT28">
         <v>0</v>
       </c>
       <c r="FU28">
-        <v>91180</v>
+        <v>14681</v>
       </c>
       <c r="FV28">
-        <v>-0.1281442163740519</v>
+        <v>-2.395235892691952</v>
       </c>
       <c r="FW28" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:179">
@@ -54487,7 +54496,7 @@
         <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -55026,7 +55035,7 @@
         <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -55562,10 +55571,10 @@
     </row>
     <row r="31" spans="1:179">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C31">
         <v>123415</v>
@@ -56104,7 +56113,7 @@
         <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -56643,7 +56652,7 @@
         <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -57179,10 +57188,10 @@
     </row>
     <row r="34" spans="1:179">
       <c r="A34" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C34">
         <v>136227</v>
@@ -57735,98 +57744,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
         <v>203</v>
@@ -57834,7 +57843,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B16" t="s">
         <v>203</v>
@@ -57842,251 +57851,251 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B22" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C43" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -58094,7 +58103,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B56" t="s">
         <v>186</v>
@@ -58102,41 +58111,41 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B60" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -58144,7 +58153,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s">
         <v>186</v>
@@ -58152,49 +58161,49 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B64" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B67" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B70" t="s">
         <v>185</v>
@@ -58202,394 +58211,394 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B71" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B78" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C78" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D78" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B81" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B82" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B89" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B90" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B92" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B93" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B94" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B97" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C97" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D97" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B99" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C99" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D99" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B102" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B103" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B105" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B106" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B110" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B111" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B115" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C115" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D115" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E115" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B117" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C117" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D117" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E117" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B119" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B120" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B122" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B125" t="s">
         <v>203</v>
@@ -58597,219 +58606,219 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B126" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B128" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B133" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B136" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B137" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B141" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B142" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B143" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B144" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B145" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B146" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B149" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B150" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B153" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B154" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B155" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B156" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B157" t="s">
         <v>203</v>
@@ -58817,7 +58826,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B158" t="s">
         <v>203</v>
@@ -58825,7 +58834,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B159" t="s">
         <v>203</v>
@@ -58833,12 +58842,12 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B161" t="s">
         <v>203</v>
@@ -58846,7 +58855,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B162" t="s">
         <v>203</v>
@@ -58854,7 +58863,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B163" t="s">
         <v>203</v>
@@ -58862,7 +58871,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B164" t="s">
         <v>203</v>
@@ -58870,111 +58879,111 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B168" t="s">
-        <v>426</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B169" t="s">
-        <v>426</v>
+        <v>258</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B174" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B175" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B176" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B177" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B178" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B179" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -58984,278 +58993,278 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B213" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B214" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B215" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B216" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B218" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B219" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B221" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B222" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B224" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B225" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B229" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B230" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B231" t="s">
         <v>203</v>
@@ -59263,7 +59272,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B232" t="s">
         <v>203</v>
@@ -59271,175 +59280,175 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B235" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B236" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B243" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B244" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B246" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B247" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B248" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B257" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B258" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B259" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
